--- a/spliced/walkingToRunning/2023-03-26_18-54-27/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_18-54-27/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.19702434539795</v>
+        <v>-0.06342706156940325</v>
       </c>
       <c r="B2" t="n">
-        <v>1.756288290023804</v>
+        <v>0.2977593003249712</v>
       </c>
       <c r="C2" t="n">
-        <v>2.010953009128571</v>
+        <v>0.5447398664020925</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.257760638143962</v>
+        <v>-1.19702434539795</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1820772450144785</v>
+        <v>1.756288290023804</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.106898115902421</v>
+        <v>2.010953009128571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.003179427872321</v>
+        <v>1.257760638143962</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.029003118596394</v>
+        <v>-0.1820772450144785</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.035639041807577</v>
+        <v>-2.106898115902421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.663756308759156</v>
+        <v>2.003179427872321</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.09051663155962358</v>
+        <v>-3.029003118596394</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.346439961979992</v>
+        <v>-6.035639041807577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4272669495606185</v>
+        <v>1.663756308759156</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4076309111423626</v>
+        <v>-0.09051663155962358</v>
       </c>
       <c r="C6" t="n">
-        <v>2.549625923720821</v>
+        <v>-2.346439961979992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.007111654049011</v>
+        <v>-0.4272669495606185</v>
       </c>
       <c r="B7" t="n">
-        <v>2.933262512451288</v>
+        <v>0.4076309111423626</v>
       </c>
       <c r="C7" t="n">
-        <v>6.187744315077628</v>
+        <v>2.549625923720821</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8147307605277296</v>
+        <v>-5.007111654049011</v>
       </c>
       <c r="B8" t="n">
-        <v>2.59154647297968</v>
+        <v>2.933262512451288</v>
       </c>
       <c r="C8" t="n">
-        <v>3.190694384458493</v>
+        <v>6.187744315077628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.642261807511497</v>
+        <v>-0.8147307605277296</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.687124653560384</v>
+        <v>2.59154647297968</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.055825431172487</v>
+        <v>3.190694384458493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.307725646146919</v>
+        <v>4.642261807511497</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.475619191076696</v>
+        <v>-2.687124653560384</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.178602584978427</v>
+        <v>-4.055825431172487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5536176257017136</v>
+        <v>3.307725646146919</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.48860380126209</v>
+        <v>-4.475619191076696</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.862921412398188</v>
+        <v>-7.178602584978427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-7.221588652308443</v>
+        <v>-0.5536176257017136</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.411513553886869</v>
+        <v>-4.48860380126209</v>
       </c>
       <c r="C12" t="n">
-        <v>2.527892092379122</v>
+        <v>-3.862921412398188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-5.599334018986253</v>
+        <v>-7.221588652308443</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.780423902883811</v>
+        <v>-2.411513553886869</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.090038404232164</v>
+        <v>2.527892092379122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.376622484951461</v>
+        <v>-5.599334018986253</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.650588244926631</v>
+        <v>-3.780423902883811</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.948861485574298</v>
+        <v>-1.090038404232164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.869635640121101</v>
+        <v>6.376622484951461</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.935632589386703</v>
+        <v>-7.650588244926631</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.603090690403443</v>
+        <v>-4.948861485574298</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.96556776325869</v>
+        <v>2.869635640121101</v>
       </c>
       <c r="B16" t="n">
-        <v>3.462880915984825</v>
+        <v>-1.935632589386703</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1149900999010921</v>
+        <v>-2.603090690403443</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.452823406312537</v>
+        <v>2.96556776325869</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1738118369405208</v>
+        <v>3.462880915984825</v>
       </c>
       <c r="C17" t="n">
-        <v>2.291137044022761</v>
+        <v>-0.1149900999010921</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.949691057205192</v>
+        <v>-4.452823406312537</v>
       </c>
       <c r="B18" t="n">
-        <v>5.274479982329643</v>
+        <v>0.1738118369405208</v>
       </c>
       <c r="C18" t="n">
-        <v>2.80145074390779</v>
+        <v>2.291137044022761</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.519368160061688</v>
+        <v>-4.949691057205192</v>
       </c>
       <c r="B19" t="n">
-        <v>9.493784741657493</v>
+        <v>5.274479982329643</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.797140115644872</v>
+        <v>2.80145074390779</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.409833646402128</v>
+        <v>-2.519368160061688</v>
       </c>
       <c r="B20" t="n">
-        <v>1.814598339359917</v>
+        <v>9.493784741657493</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.559189867682572</v>
+        <v>-1.797140115644872</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.409833646402128</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.814598339359917</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.559189867682572</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>2.461990158732359</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-6.157769249706776</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-2.199485290341278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.753937654378926</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-9.407423193861781</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.08937735819234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-4.065274791019721</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.80112353185328</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.134828872796967</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-7.774596919373714</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.037927262666848</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.593074496199395</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.1093276535592701</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10.26185343905173</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.281300154764442</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.391102220953991</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-5.063158106513092</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.229867340406294</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6.242717754550078</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2678701499613687</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.157948156682439</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.95433324720798</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-6.421389656095905</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3005734565781801</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-2.448658175584859</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.071053583447552</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.803342400527646</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-7.789634487977738</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.2244347770038115</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.027555852401433</v>
       </c>
     </row>
   </sheetData>
